--- a/data/trans_camb/P16A15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Edad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.407282762412105</v>
+        <v>0.4072827624121049</v>
       </c>
     </row>
     <row r="5">
@@ -701,12 +701,12 @@
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>3.684789743221557</v>
+        <v>3.847420915741947</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>1.58338940213855</v>
+        <v>1.51329911780858</v>
       </c>
     </row>
     <row r="7">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3109466113302413</v>
+        <v>0.4143027458288604</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3407109349017332</v>
+        <v>-0.344949145674416</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4162073735607336</v>
+        <v>-0.4180226103232508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.08084330609347457</v>
+        <v>-0.01341294237461723</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.7150154422098248</v>
+        <v>-0.6163593563774417</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.2538471846713498</v>
+        <v>-0.2210975414292424</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3510158186476084</v>
+        <v>0.3364923850654005</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3159417888629544</v>
+        <v>-0.3513076289871614</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.1976592298584171</v>
+        <v>-0.1970100352894055</v>
       </c>
     </row>
     <row r="12">
@@ -850,31 +850,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.837881899342846</v>
+        <v>2.871718857079012</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.192359025381283</v>
+        <v>1.048866929084074</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.067778934028228</v>
+        <v>1.106266252595575</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.944214484712074</v>
+        <v>1.893616210242067</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3471156267021387</v>
+        <v>0.3472119178883666</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.602592660497026</v>
+        <v>1.720051895980578</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.88476647615536</v>
+        <v>1.904880848910616</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5341994543667176</v>
+        <v>0.5364740618090259</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9712183024235722</v>
+        <v>0.980557966621235</v>
       </c>
     </row>
     <row r="13">
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2121123544604299</v>
+        <v>-0.2531964459804826</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="I14" s="6" t="n">
-        <v>0.2076195307367278</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>-0.8185584511365924</v>
-      </c>
+        <v>0.1054482655444535</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="n">
-        <v>-0.7044319487942892</v>
+        <v>-0.658643575313788</v>
       </c>
     </row>
     <row r="15">
@@ -951,13 +951,11 @@
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>17.15148519736452</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>6.294919316120196</v>
-      </c>
+        <v>16.21936824311394</v>
+      </c>
+      <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>9.393655026123598</v>
+        <v>13.10552325033406</v>
       </c>
     </row>
     <row r="16">
@@ -978,7 +976,7 @@
         <v>0.5786474322693178</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8925340993550166</v>
+        <v>0.8925340993550173</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.7438464826247292</v>
@@ -996,7 +994,7 @@
         <v>-0.2576624909836747</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1222009967386341</v>
+        <v>0.1222009967386337</v>
       </c>
     </row>
     <row r="17">
@@ -1007,31 +1005,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7650771704266028</v>
+        <v>-0.8737695064948903</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.105999500004796</v>
+        <v>-1.21955010806775</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8222807116591636</v>
+        <v>-0.9814736415224752</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7330536676261413</v>
+        <v>-0.8359398434535451</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.483476652794025</v>
+        <v>-2.486448594194152</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.101546782861442</v>
+        <v>-2.111904156014301</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2527635386293048</v>
+        <v>-0.3823272556306307</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.282065088601809</v>
+        <v>-1.415481644839552</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.069067052259467</v>
+        <v>-1.020935865555573</v>
       </c>
     </row>
     <row r="18">
@@ -1042,31 +1040,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.933144765615129</v>
+        <v>3.100976094596215</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.334449156726975</v>
+        <v>2.523612181731666</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.901536659855917</v>
+        <v>2.811835782043043</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.410289897260558</v>
+        <v>2.534730912023068</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07387522499645593</v>
+        <v>0.005966217365598208</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6139322527358605</v>
+        <v>0.515324919309773</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.205452044500085</v>
+        <v>2.116682281019229</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9470260838670242</v>
+        <v>0.7075179558594497</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.201563954447976</v>
+        <v>1.287090510170295</v>
       </c>
     </row>
     <row r="19">
@@ -1083,7 +1081,7 @@
         <v>0.2440149419354855</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3763805804433074</v>
+        <v>0.3763805804433076</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3790984312390776</v>
@@ -1101,7 +1099,7 @@
         <v>-0.1193587372330993</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.05660799367290754</v>
+        <v>0.05660799367290738</v>
       </c>
     </row>
     <row r="20">
@@ -1112,31 +1110,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2762548885886427</v>
+        <v>-0.3071896170129469</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3823940499508178</v>
+        <v>-0.4036525632055246</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2997847389327785</v>
+        <v>-0.3371688568051298</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3042883083268504</v>
+        <v>-0.3284593272289298</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8621424852190009</v>
+        <v>-0.8584787787918122</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.733249397799329</v>
+        <v>-0.7199416304352323</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09906165662486392</v>
+        <v>-0.1533643797469783</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4821412509805687</v>
+        <v>-0.5295997282026119</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3854695108537477</v>
+        <v>-0.3790103897736834</v>
       </c>
     </row>
     <row r="21">
@@ -1147,31 +1145,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.867850110174813</v>
+        <v>1.933061987853139</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.512203865036887</v>
+        <v>1.628105936214576</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.995341614262193</v>
+        <v>1.893664681046605</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.04073560583921</v>
+        <v>2.236505006597826</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2909676829732168</v>
+        <v>0.2366229958865836</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5415700975534666</v>
+        <v>0.5088771961823638</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.443155958717459</v>
+        <v>1.309875174529877</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5993144884642428</v>
+        <v>0.440152497774688</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.782032154291059</v>
+        <v>0.7506861578045401</v>
       </c>
     </row>
     <row r="22">
@@ -1192,7 +1190,7 @@
         <v>1.924773812881549</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.495489215298667</v>
+        <v>3.495489215298666</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.315824252970526</v>
@@ -1210,7 +1208,7 @@
         <v>2.495973269512087</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.240367619835524</v>
+        <v>2.240367619835525</v>
       </c>
     </row>
     <row r="23">
@@ -1221,31 +1219,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3583749953602173</v>
+        <v>-0.6255028475512379</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9205754448941127</v>
+        <v>-0.7666755833565512</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5635405890900032</v>
+        <v>0.5134093607299782</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.23745496134437</v>
+        <v>1.482183378811202</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1993288144542881</v>
+        <v>0.1839411735025739</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.184269486599467</v>
+        <v>-1.369335734174215</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.102096555613738</v>
+        <v>1.338250878423694</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.568630811287389</v>
+        <v>0.5439883050991275</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4041305590552433</v>
+        <v>0.2716368642405781</v>
       </c>
     </row>
     <row r="24">
@@ -1256,31 +1254,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.520837287253993</v>
+        <v>5.741317267007573</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.098818771243627</v>
+        <v>4.914759820902152</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.423762405195996</v>
+        <v>6.324739056976885</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.405961249995258</v>
+        <v>7.914336702429262</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.876371843898516</v>
+        <v>6.000570360388253</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.379153141442641</v>
+        <v>3.153474793844377</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.566860261980357</v>
+        <v>5.559147749525467</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.647187751331961</v>
+        <v>4.517140729126614</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.125827165347303</v>
+        <v>4.105618525127521</v>
       </c>
     </row>
     <row r="25">
@@ -1297,7 +1295,7 @@
         <v>0.3440455705600851</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6248046255698214</v>
+        <v>0.6248046255698212</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.8961725893077545</v>
@@ -1315,7 +1313,7 @@
         <v>0.4793951690482936</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4303016490442319</v>
+        <v>0.4303016490442322</v>
       </c>
     </row>
     <row r="26">
@@ -1326,31 +1324,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07569319881566838</v>
+        <v>-0.09599464613848485</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1534569975626263</v>
+        <v>-0.1201571949306786</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.06274696845439034</v>
+        <v>0.06365244716440448</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1799025112955952</v>
+        <v>0.1949292032977573</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01416038879569211</v>
+        <v>0.01582590167808608</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1981512752489875</v>
+        <v>-0.2120404130003203</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1739469818909408</v>
+        <v>0.2027216742402761</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.08866795266888407</v>
+        <v>0.08656797344405259</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0408027352247034</v>
+        <v>0.0408517143115471</v>
       </c>
     </row>
     <row r="27">
@@ -1361,31 +1359,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.228633602289562</v>
+        <v>1.346656564842381</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.175950739892423</v>
+        <v>1.20012359839671</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.496967199332251</v>
+        <v>1.490281577573383</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.041920063263682</v>
+        <v>2.266465632198199</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.59694461611614</v>
+        <v>1.642615408165622</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.952039900274125</v>
+        <v>0.9448506514158638</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.276852280975288</v>
+        <v>1.300066790112326</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.084240500999529</v>
+        <v>1.080068001857082</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9714988581940613</v>
+        <v>0.9774373468467568</v>
       </c>
     </row>
     <row r="28">
@@ -1406,7 +1404,7 @@
         <v>1.837731955527577</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.485784438301655</v>
+        <v>5.48578443830165</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>7.776077131094889</v>
@@ -1415,7 +1413,7 @@
         <v>5.181605093858751</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>5.436937003006376</v>
+        <v>5.436937003006373</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>6.766734451797133</v>
@@ -1424,7 +1422,7 @@
         <v>3.540505903123079</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.446176186421797</v>
+        <v>5.446176186421795</v>
       </c>
     </row>
     <row r="29">
@@ -1435,31 +1433,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3669872888989441</v>
+        <v>0.2524810413144075</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.809085827341339</v>
+        <v>-2.946948006033014</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6992229393177192</v>
+        <v>0.7693869737679894</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.57902677750442</v>
+        <v>1.852521812564574</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5106953614555011</v>
+        <v>-0.1497045243764097</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.042423073022474</v>
+        <v>0.6276723248681784</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.109497022114381</v>
+        <v>2.773748800379715</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.04251954363391584</v>
+        <v>0.13749005338724</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.175616530239148</v>
+        <v>2.080266214051441</v>
       </c>
     </row>
     <row r="30">
@@ -1470,31 +1468,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.75384642947271</v>
+        <v>11.0586576557455</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.403111281019877</v>
+        <v>6.883550551154189</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.769823435831077</v>
+        <v>9.997468706359998</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.46112279401535</v>
+        <v>13.37791967759402</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.78018956090916</v>
+        <v>10.4330888352333</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.849251356334717</v>
+        <v>9.449059403175848</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.67725586213353</v>
+        <v>10.67074922461594</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.14016344602261</v>
+        <v>7.062191238129506</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.502068048146812</v>
+        <v>8.464848721829</v>
       </c>
     </row>
     <row r="31">
@@ -1511,7 +1509,7 @@
         <v>0.1338166832467349</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.3994540533139596</v>
+        <v>0.3994540533139592</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5157001222812927</v>
@@ -1520,7 +1518,7 @@
         <v>0.3436378440526197</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.360571150467908</v>
+        <v>0.3605711504679078</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4692394983530944</v>
@@ -1529,7 +1527,7 @@
         <v>0.2455165376641043</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3776653273249725</v>
+        <v>0.3776653273249723</v>
       </c>
     </row>
     <row r="32">
@@ -1540,31 +1538,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02586313650635243</v>
+        <v>0.01289551295463991</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2310145314087247</v>
+        <v>-0.1833957394084895</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.0396036432886011</v>
+        <v>0.05219175618376286</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1399363281958008</v>
+        <v>0.09633066713294502</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02524078840643863</v>
+        <v>-0.008041885854073179</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05490958953211107</v>
+        <v>0.03540076625941247</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1819725513938369</v>
+        <v>0.1580195284190159</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.005508473352333329</v>
+        <v>0.007005068252254303</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1279744436839362</v>
+        <v>0.1251855468150353</v>
       </c>
     </row>
     <row r="33">
@@ -1575,31 +1573,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9393932031675399</v>
+        <v>0.9732692770912016</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5632838763041167</v>
+        <v>0.5975380658546459</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8883426369044917</v>
+        <v>0.9674528358241643</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.097552081976565</v>
+        <v>1.082659476129302</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8597876116291482</v>
+        <v>0.8509970492682685</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8222744564665063</v>
+        <v>0.7575551783655861</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.814772745194106</v>
+        <v>0.8222410742070683</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5611772554039951</v>
+        <v>0.5596992695957681</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6770859964927559</v>
+        <v>0.6833919507697019</v>
       </c>
     </row>
     <row r="34">
@@ -1620,7 +1618,7 @@
         <v>12.06492464990488</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9.901991927649137</v>
+        <v>9.901991927649131</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>7.836857931993749</v>
@@ -1629,7 +1627,7 @@
         <v>3.459514535036881</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>7.827929944030207</v>
+        <v>7.827929944030202</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>12.01422312122214</v>
@@ -1638,7 +1636,7 @@
         <v>7.43323353719301</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>8.674868175883985</v>
+        <v>8.674868175883995</v>
       </c>
     </row>
     <row r="35">
@@ -1649,31 +1647,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>9.321771525296588</v>
+        <v>9.569136670849</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>5.07672247330376</v>
+        <v>5.534032940733946</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4.590863269992272</v>
+        <v>4.212151681969669</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.7586018537874522</v>
+        <v>0.8076645975901107</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.58779485677834</v>
+        <v>-3.753876393673709</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.227759259840921</v>
+        <v>2.183779888069938</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.923646526069073</v>
+        <v>6.616654590108303</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>2.812698489326524</v>
+        <v>2.972506691384316</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.577971179517756</v>
+        <v>4.760437556959856</v>
       </c>
     </row>
     <row r="36">
@@ -1684,31 +1682,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>23.65205806942568</v>
+        <v>24.60368820666046</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>18.04541187855322</v>
+        <v>18.27942017624725</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15.17194707779477</v>
+        <v>15.63919574988069</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14.40197871767272</v>
+        <v>14.43170814664271</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>10.07606227514044</v>
+        <v>9.565842455781258</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.24235267918318</v>
+        <v>13.35973761401289</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>16.63642431346497</v>
+        <v>16.53502852459675</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>12.08869430298562</v>
+        <v>11.81851878118552</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>12.42240693487332</v>
+        <v>12.41279291006171</v>
       </c>
     </row>
     <row r="37">
@@ -1725,7 +1723,7 @@
         <v>0.6903364263370231</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.5665767436852783</v>
+        <v>0.5665767436852781</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.3163077403232026</v>
@@ -1734,7 +1732,7 @@
         <v>0.139631371997374</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3159473928825718</v>
+        <v>0.3159473928825716</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5610028958122205</v>
@@ -1743,7 +1741,7 @@
         <v>0.347094064887784</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.4050720648648262</v>
+        <v>0.4050720648648267</v>
       </c>
     </row>
     <row r="38">
@@ -1754,31 +1752,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.4380586608903806</v>
+        <v>0.4627429353289285</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2400247304257921</v>
+        <v>0.282313158052633</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2113700552811995</v>
+        <v>0.1874565470260966</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.025702444952685</v>
+        <v>0.03561579305743563</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.09551535442455415</v>
+        <v>-0.1311517433306392</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07603656382085482</v>
+        <v>0.07462940097492643</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2784710421614296</v>
+        <v>0.2797508041846574</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1192832196106604</v>
+        <v>0.1313883969004639</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1923164524493831</v>
+        <v>0.2016912180108985</v>
       </c>
     </row>
     <row r="39">
@@ -1789,31 +1787,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.590807692149565</v>
+        <v>1.667746296021982</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.196867307830896</v>
+        <v>1.344239358911477</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.095533798592297</v>
+        <v>1.116682176763898</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6625498467211856</v>
+        <v>0.691748630654821</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4555176073350939</v>
+        <v>0.4411917964538913</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6360424356709616</v>
+        <v>0.6344554503285892</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8870078440781087</v>
+        <v>0.8389575181583481</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6276369931001685</v>
+        <v>0.6305577654447824</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.657374639546259</v>
+        <v>0.655414478641403</v>
       </c>
     </row>
     <row r="40">
@@ -1843,7 +1841,7 @@
         <v>7.080287806438348</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>17.21480297532507</v>
+        <v>17.21480297532508</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>11.69430375302782</v>
@@ -1863,31 +1861,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>3.840264252166143</v>
+        <v>4.22368061195962</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.939166097977436</v>
+        <v>1.897080156203679</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9.452091663408472</v>
+        <v>8.781503629398953</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4.330995128794394</v>
+        <v>4.295099920335506</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.342586223033564</v>
+        <v>-0.4025035005738989</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>10.81324451191884</v>
+        <v>11.04948779466889</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>6.31531483474375</v>
+        <v>6.082546330890001</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.428857653043187</v>
+        <v>3.033216617312417</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>12.14910115544318</v>
+        <v>12.03146257725485</v>
       </c>
     </row>
     <row r="42">
@@ -1898,31 +1896,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>20.51311530390834</v>
+        <v>20.47462577819806</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>17.02843888766903</v>
+        <v>16.92582202906294</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>22.85025959146909</v>
+        <v>22.75770491755275</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>18.46635613890836</v>
+        <v>18.09677505919871</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>14.19617178630751</v>
+        <v>13.56911823933923</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>22.84403368878493</v>
+        <v>22.66530384720021</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>17.15227192292144</v>
+        <v>16.89515634376139</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.42490357268075</v>
+        <v>13.36983042804158</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>21.08137615873263</v>
+        <v>21.18375480689175</v>
       </c>
     </row>
     <row r="43">
@@ -1948,7 +1946,7 @@
         <v>0.2931468513259546</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.7127486094314268</v>
+        <v>0.712748609431427</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.5259302113234803</v>
@@ -1957,7 +1955,7 @@
         <v>0.3624104419731242</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.7527929571724246</v>
+        <v>0.7527929571724248</v>
       </c>
     </row>
     <row r="44">
@@ -1968,31 +1966,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1651826659697065</v>
+        <v>0.1864403135540477</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.07818183551520162</v>
+        <v>0.06838527904257304</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4036611916003666</v>
+        <v>0.3620744026622217</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1452388822390362</v>
+        <v>0.1523133738913889</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.02178760449233478</v>
+        <v>-0.01820329419812172</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3766006694865413</v>
+        <v>0.3887579293850062</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2433978303172372</v>
+        <v>0.2359091559487238</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.09323065021897745</v>
+        <v>0.1151616749513885</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.4798439316612119</v>
+        <v>0.4533674703804927</v>
       </c>
     </row>
     <row r="45">
@@ -2003,31 +2001,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.38196450216049</v>
+        <v>1.304347562214678</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.128715982463439</v>
+        <v>1.093956088892423</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.575685330665618</v>
+        <v>1.5100964115157</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8933072910511514</v>
+        <v>0.8730547343409722</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6879018889388113</v>
+        <v>0.6559406173872249</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.164116034297711</v>
+        <v>1.141883622792887</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8796551867721804</v>
+        <v>0.8601315322746375</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.715431978596096</v>
+        <v>0.684204452974263</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.110370549889826</v>
+        <v>1.102413589637192</v>
       </c>
     </row>
     <row r="46">
@@ -2077,31 +2075,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>3.179985886248689</v>
+        <v>3.153716880906111</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.306586335688661</v>
+        <v>2.296470179444824</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4.889563014438545</v>
+        <v>4.871973067579218</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.927788764660521</v>
+        <v>2.747390970804986</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.677669653995973</v>
+        <v>1.782450689348924</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>4.722241981983939</v>
+        <v>4.759499512665812</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>3.475661726255159</v>
+        <v>3.450782855205101</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.298887937556774</v>
+        <v>2.345650197702372</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>5.206810586461301</v>
+        <v>5.173633753276334</v>
       </c>
     </row>
     <row r="48">
@@ -2112,31 +2110,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.818996715886779</v>
+        <v>5.846179151073374</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.823648873216966</v>
+        <v>4.844528449967989</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7.378570171762864</v>
+        <v>7.447610190620944</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.873691305936384</v>
+        <v>5.75815203945176</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.601390812758085</v>
+        <v>4.637162218923409</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.295960473432266</v>
+        <v>7.249643176473519</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5.502844101198869</v>
+        <v>5.4739940814287</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.205142030226215</v>
+        <v>4.258149790157123</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>7.026317433606426</v>
+        <v>7.058596109887162</v>
       </c>
     </row>
     <row r="49">
@@ -2182,31 +2180,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.4872328937839039</v>
+        <v>0.4913598367058982</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.3657300742306715</v>
+        <v>0.3665329125344056</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.7538041699755637</v>
+        <v>0.7514022585247061</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.3404342500743697</v>
+        <v>0.3135727786168055</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1941004419552707</v>
+        <v>0.200824536419486</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5347075045712432</v>
+        <v>0.552106100874871</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4844033222735818</v>
+        <v>0.465414065247253</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.3093209466297671</v>
+        <v>0.3157683392436028</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.7172058749322908</v>
+        <v>0.6990210650369273</v>
       </c>
     </row>
     <row r="51">
@@ -2217,31 +2215,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.103449690597651</v>
+        <v>1.10284452246118</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.9337954324719424</v>
+        <v>0.9061728044949688</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.42366682624409</v>
+        <v>1.441250420583597</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7948494763732673</v>
+        <v>0.7883760070956185</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6442888073058989</v>
+        <v>0.625687894321299</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.013999835665136</v>
+        <v>1.03768573898426</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.8553800983568091</v>
+        <v>0.8592068213564386</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.6494959226710142</v>
+        <v>0.6656136031683622</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.103959777697377</v>
+        <v>1.106076995163356</v>
       </c>
     </row>
     <row r="52">
